--- a/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-not-performed-reason-cs.xlsx
+++ b/jpcore-r4/feature/swg3-practionerRole対応/CodeSystem-jp-procedure-not-performed-reason-cs.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Concepts" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Property</t>
   </si>
@@ -56,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-01T13:52:43+00:00</t>
+    <t>2022-08-03T11:17:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -80,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Situation codes describing the reason that a procedure, which might otherwise be expected, was not performed, or a procedure that was started and was not completed.</t>
+    <t>処置が実施されなかった理由、または開始された処置が完了しなかった理由を示すコード</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -117,6 +118,54 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>JPPNPR001</t>
+  </si>
+  <si>
+    <t>処置が禁忌</t>
+  </si>
+  <si>
+    <t>JPPNPR002</t>
+  </si>
+  <si>
+    <t>処置が適応外</t>
+  </si>
+  <si>
+    <t>JPPNPR003</t>
+  </si>
+  <si>
+    <t>処置を拒否、または望まず</t>
+  </si>
+  <si>
+    <t>JPPNPR004</t>
+  </si>
+  <si>
+    <t>処置が継続困難</t>
+  </si>
+  <si>
+    <t>JPPNPR005</t>
+  </si>
+  <si>
+    <t>処置が実施困難</t>
   </si>
 </sst>
 </file>
@@ -418,7 +467,96 @@
       <c r="A22" t="s" s="2">
         <v>34</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
